--- a/application/src/test/resources/CCD_TestDefinition_Invalid_Case_Type_NOC_CONFIG.xlsx
+++ b/application/src/test/resources/CCD_TestDefinition_Invalid_Case_Type_NOC_CONFIG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kiranyenigala/Projects/CCD/ccd-definition-store-api/application/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A763B16-B834-CA4F-84BC-D0285753AB2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676B76D0-1018-B640-91BF-1BA470422BB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="35200" windowHeight="19700" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
     <sheet name="Banner" sheetId="24" r:id="rId2"/>
     <sheet name="CaseType" sheetId="2" r:id="rId3"/>
-    <sheet name="NoCConfig" sheetId="25" r:id="rId4"/>
+    <sheet name="NoticeOfChangeConfig" sheetId="25" r:id="rId4"/>
     <sheet name="CaseField" sheetId="3" r:id="rId5"/>
     <sheet name="FixedLists" sheetId="4" r:id="rId6"/>
     <sheet name="ComplexTypes" sheetId="5" r:id="rId7"/>
@@ -1174,9 +1174,6 @@
     <t>ContectNumber="07777777777"</t>
   </si>
   <si>
-    <t>NoCConfig</t>
-  </si>
-  <si>
     <t>CaseTypeId</t>
   </si>
   <si>
@@ -1193,6 +1190,9 @@
   </si>
   <si>
     <t>TestComplexAddressBookCase1</t>
+  </si>
+  <si>
+    <t>NoticeOfChangeConfig</t>
   </si>
 </sst>
 </file>
@@ -15602,7 +15602,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -15614,36 +15614,36 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A2" s="206" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B2" s="206" t="s">
+        <v>368</v>
+      </c>
+      <c r="C2" s="206" t="s">
         <v>369</v>
-      </c>
-      <c r="C2" s="206" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A3" s="207" t="s">
+        <v>365</v>
+      </c>
+      <c r="B3" s="208" t="s">
         <v>366</v>
       </c>
-      <c r="B3" s="208" t="s">
+      <c r="C3" s="209" t="s">
         <v>367</v>
-      </c>
-      <c r="C3" s="209" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.15">
       <c r="A4" s="210" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B4" s="210" t="s">
         <v>176</v>
